--- a/Expenses01.xlsx
+++ b/Expenses01.xlsx
@@ -14,21 +14,270 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="99">
+  <si>
+    <t>SEB</t>
+  </si>
+  <si>
+    <t>B-101</t>
+  </si>
+  <si>
+    <t>SGW</t>
+  </si>
+  <si>
+    <t>PPL</t>
+  </si>
+  <si>
+    <t>YKS</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>KHW</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>ADSL</t>
+  </si>
+  <si>
+    <t>B-303</t>
+  </si>
+  <si>
+    <t>APK</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>CGL</t>
+  </si>
+  <si>
+    <t>B-305</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>B-302</t>
+  </si>
+  <si>
+    <t>NGK</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B-304</t>
+  </si>
+  <si>
+    <t>DAV</t>
+  </si>
+  <si>
+    <t>RGM</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>MPM</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>VAMI</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B-203B</t>
+  </si>
+  <si>
+    <t>B-201</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>BPD</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>VTP</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>PUB</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>VSG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>M3-Tut</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>SPOSL</t>
+  </si>
+  <si>
+    <t>B-105</t>
+  </si>
+  <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>B-104</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>ES-IOTL</t>
+  </si>
+  <si>
+    <t>B-004</t>
+  </si>
+  <si>
+    <t>NSS</t>
+  </si>
+  <si>
+    <t>WTL</t>
+  </si>
+  <si>
+    <t>B-103</t>
+  </si>
+  <si>
+    <t>YVD</t>
+  </si>
+  <si>
+    <t>AAB</t>
+  </si>
+  <si>
+    <t>B-203A</t>
+  </si>
+  <si>
+    <t>B-202</t>
+  </si>
+  <si>
+    <t>SPOS</t>
+  </si>
+  <si>
+    <t>B-301</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>ES-IOT</t>
+  </si>
+  <si>
+    <t>DAA</t>
+  </si>
+  <si>
+    <t>DSM</t>
+  </si>
+  <si>
+    <t>SDM</t>
+  </si>
   <si>
     <t>TEB</t>
   </si>
   <si>
-    <t>B-101</t>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>SBT</t>
+  </si>
+  <si>
+    <t>WT</t>
   </si>
   <si>
     <t>PRR</t>
   </si>
   <si>
-    <t>DAA</t>
+    <t>VKK</t>
+  </si>
+  <si>
+    <t>TEC</t>
+  </si>
+  <si>
+    <t>VVM</t>
+  </si>
+  <si>
+    <t>FMI</t>
+  </si>
+  <si>
+    <t>BEC</t>
+  </si>
+  <si>
+    <t>NSB</t>
+  </si>
+  <si>
+    <t>HPC</t>
+  </si>
+  <si>
+    <t>BEA</t>
+  </si>
+  <si>
+    <t>PDM</t>
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>MAM</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
   </si>
   <si>
     <t>Time</t>
@@ -92,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +363,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0BFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77ABFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,6 +412,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:BQ82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,24 +720,232 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:69">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+    </row>
+    <row r="2" spans="1:69">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ2" s="2"/>
+    </row>
+    <row r="3" spans="1:69">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -487,270 +953,5568 @@
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+    </row>
+    <row r="5" spans="1:69">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+    </row>
+    <row r="6" spans="1:69">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+    </row>
+    <row r="7" spans="1:69">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" s="4"/>
+      <c r="AD7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK7" s="4"/>
+      <c r="BN7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BQ7" s="4"/>
+    </row>
+    <row r="8" spans="1:69">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+      <c r="BN8" s="4"/>
+      <c r="BO8" s="4"/>
+      <c r="BP8" s="4"/>
+      <c r="BQ8" s="4"/>
+    </row>
+    <row r="9" spans="1:69">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BN9" s="4"/>
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+      <c r="BQ9" s="4"/>
+    </row>
+    <row r="10" spans="1:69">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+      <c r="BQ10" s="4"/>
+    </row>
+    <row r="11" spans="1:69">
       <c r="A11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69">
+      <c r="A12" s="3"/>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
+      <c r="BN12" s="4"/>
+      <c r="BO12" s="4"/>
+      <c r="BP12" s="4"/>
+      <c r="BQ12" s="4"/>
+    </row>
+    <row r="13" spans="1:69">
+      <c r="A13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+      <c r="BQ13" s="4"/>
+    </row>
+    <row r="14" spans="1:69">
+      <c r="A14" s="3"/>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="4"/>
+    </row>
+    <row r="15" spans="1:69">
+      <c r="A15" s="3"/>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="R15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" s="4"/>
+      <c r="AD15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BK15" s="4"/>
+      <c r="BN15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BQ15" s="4"/>
+    </row>
+    <row r="16" spans="1:69">
+      <c r="A16" s="3"/>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="4"/>
+      <c r="BQ16" s="4"/>
+    </row>
+    <row r="17" spans="1:69">
+      <c r="A17" s="3"/>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
+      <c r="BP17" s="4"/>
+      <c r="BQ17" s="4"/>
+    </row>
+    <row r="18" spans="1:69">
+      <c r="A18" s="3"/>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
+      <c r="BP18" s="4"/>
+      <c r="BQ18" s="4"/>
+    </row>
+    <row r="19" spans="1:69">
+      <c r="A19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BP19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ19" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:69">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AJ20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AV20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BH20" s="4"/>
+      <c r="BI20" s="4"/>
+      <c r="BJ20" s="4"/>
+      <c r="BK20" s="4"/>
+      <c r="BP20" s="4"/>
+      <c r="BQ20" s="4"/>
+    </row>
+    <row r="21" spans="1:69">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AJ21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AV21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4"/>
+      <c r="BJ21" s="4"/>
+      <c r="BK21" s="4"/>
+      <c r="BP21" s="4"/>
+      <c r="BQ21" s="4"/>
+    </row>
+    <row r="22" spans="1:69">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AJ22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AV22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
+      <c r="BP22" s="4"/>
+      <c r="BQ22" s="4"/>
+    </row>
+    <row r="23" spans="1:69">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="S23" s="4"/>
+      <c r="T23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="4"/>
+      <c r="X23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG23" s="4"/>
+      <c r="AJ23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM23" s="4"/>
+      <c r="AP23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS23" s="4"/>
+      <c r="AV23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY23" s="4"/>
+      <c r="BB23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE23" s="4"/>
+      <c r="BH23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK23" s="4"/>
+      <c r="BP23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ23" s="4"/>
+    </row>
+    <row r="24" spans="1:69">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AJ24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AV24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+      <c r="BJ24" s="4"/>
+      <c r="BK24" s="4"/>
+      <c r="BP24" s="4"/>
+      <c r="BQ24" s="4"/>
+    </row>
+    <row r="25" spans="1:69">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AJ25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AV25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="4"/>
+      <c r="BJ25" s="4"/>
+      <c r="BK25" s="4"/>
+      <c r="BP25" s="4"/>
+      <c r="BQ25" s="4"/>
+    </row>
+    <row r="26" spans="1:69">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AJ26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AV26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+      <c r="BH26" s="4"/>
+      <c r="BI26" s="4"/>
+      <c r="BJ26" s="4"/>
+      <c r="BK26" s="4"/>
+      <c r="BP26" s="4"/>
+      <c r="BQ26" s="4"/>
+    </row>
+    <row r="27" spans="1:69">
+      <c r="A27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="K27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ27" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:69">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AJ28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AV28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX28" s="4"/>
+      <c r="AY28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="4"/>
+      <c r="BH28" s="4"/>
+      <c r="BI28" s="4"/>
+      <c r="BJ28" s="4"/>
+      <c r="BK28" s="4"/>
+      <c r="BP28" s="4"/>
+      <c r="BQ28" s="4"/>
+    </row>
+    <row r="29" spans="1:69">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AJ29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AV29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
+      <c r="BH29" s="4"/>
+      <c r="BI29" s="4"/>
+      <c r="BJ29" s="4"/>
+      <c r="BK29" s="4"/>
+      <c r="BP29" s="4"/>
+      <c r="BQ29" s="4"/>
+    </row>
+    <row r="30" spans="1:69">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AJ30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+      <c r="AV30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX30" s="4"/>
+      <c r="AY30" s="4"/>
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="4"/>
+      <c r="BH30" s="4"/>
+      <c r="BI30" s="4"/>
+      <c r="BJ30" s="4"/>
+      <c r="BK30" s="4"/>
+      <c r="BP30" s="4"/>
+      <c r="BQ30" s="4"/>
+    </row>
+    <row r="31" spans="1:69">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="X31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG31" s="4"/>
+      <c r="AJ31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM31" s="4"/>
+      <c r="AP31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS31" s="4"/>
+      <c r="AV31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY31" s="4"/>
+      <c r="BB31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE31" s="4"/>
+      <c r="BH31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI31" s="4"/>
+      <c r="BJ31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK31" s="4"/>
+      <c r="BP31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ31" s="4"/>
+    </row>
+    <row r="32" spans="1:69">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AJ32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="4"/>
+      <c r="AV32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX32" s="4"/>
+      <c r="AY32" s="4"/>
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="4"/>
+      <c r="BH32" s="4"/>
+      <c r="BI32" s="4"/>
+      <c r="BJ32" s="4"/>
+      <c r="BK32" s="4"/>
+      <c r="BP32" s="4"/>
+      <c r="BQ32" s="4"/>
+    </row>
+    <row r="33" spans="1:69">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AJ33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AV33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX33" s="4"/>
+      <c r="AY33" s="4"/>
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="4"/>
+      <c r="BH33" s="4"/>
+      <c r="BI33" s="4"/>
+      <c r="BJ33" s="4"/>
+      <c r="BK33" s="4"/>
+      <c r="BP33" s="4"/>
+      <c r="BQ33" s="4"/>
+    </row>
+    <row r="34" spans="1:69">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AJ34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="4"/>
+      <c r="AV34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX34" s="4"/>
+      <c r="AY34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
+      <c r="BH34" s="4"/>
+      <c r="BI34" s="4"/>
+      <c r="BJ34" s="4"/>
+      <c r="BK34" s="4"/>
+      <c r="BP34" s="4"/>
+      <c r="BQ34" s="4"/>
+    </row>
+    <row r="35" spans="1:69">
+      <c r="A35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+      <c r="D35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="BM35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BP35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ35" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:69">
+      <c r="A36" s="3"/>
+      <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AP36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BL36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP36" s="4"/>
+      <c r="BQ36" s="4"/>
+    </row>
+    <row r="37" spans="1:69">
       <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AP37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+      <c r="BG37" s="4"/>
+      <c r="BH37" s="4"/>
+      <c r="BI37" s="4"/>
+      <c r="BL37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP37" s="4"/>
+      <c r="BQ37" s="4"/>
+    </row>
+    <row r="38" spans="1:69">
       <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AP38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="4"/>
+      <c r="AT38" s="4"/>
+      <c r="AU38" s="4"/>
+      <c r="AV38" s="4"/>
+      <c r="AW38" s="4"/>
+      <c r="AX38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="4"/>
+      <c r="BF38" s="4"/>
+      <c r="BG38" s="4"/>
+      <c r="BH38" s="4"/>
+      <c r="BI38" s="4"/>
+      <c r="BL38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP38" s="4"/>
+      <c r="BQ38" s="4"/>
+    </row>
+    <row r="39" spans="1:69">
       <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK39" s="4"/>
+      <c r="AP39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE39" s="4"/>
+      <c r="BF39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG39" s="4"/>
+      <c r="BH39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BI39" s="4"/>
+      <c r="BL39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BQ39" s="4"/>
+    </row>
+    <row r="40" spans="1:69">
       <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AP40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BG40" s="4"/>
+      <c r="BH40" s="4"/>
+      <c r="BI40" s="4"/>
+      <c r="BL40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP40" s="4"/>
+      <c r="BQ40" s="4"/>
+    </row>
+    <row r="41" spans="1:69">
       <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AP41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD41" s="4"/>
+      <c r="BE41" s="4"/>
+      <c r="BF41" s="4"/>
+      <c r="BG41" s="4"/>
+      <c r="BH41" s="4"/>
+      <c r="BI41" s="4"/>
+      <c r="BL41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BP41" s="4"/>
+      <c r="BQ41" s="4"/>
+    </row>
+    <row r="42" spans="1:69">
       <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AP42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="4"/>
+      <c r="AT42" s="4"/>
+      <c r="AU42" s="4"/>
+      <c r="AV42" s="4"/>
+      <c r="AW42" s="4"/>
+      <c r="AX42" s="4"/>
+      <c r="AY42" s="4"/>
+      <c r="AZ42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
+      <c r="BF42" s="4"/>
+      <c r="BG42" s="4"/>
+      <c r="BH42" s="4"/>
+      <c r="BI42" s="4"/>
+      <c r="BL42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP42" s="4"/>
+      <c r="BQ42" s="4"/>
+    </row>
+    <row r="43" spans="1:69">
       <c r="A43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="BM43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BP43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ43" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:69">
+      <c r="A44" s="3"/>
+      <c r="B44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AP44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="4"/>
+      <c r="AX44" s="4"/>
+      <c r="AY44" s="4"/>
+      <c r="AZ44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="4"/>
+      <c r="BF44" s="4"/>
+      <c r="BG44" s="4"/>
+      <c r="BH44" s="4"/>
+      <c r="BI44" s="4"/>
+      <c r="BL44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP44" s="4"/>
+      <c r="BQ44" s="4"/>
+    </row>
+    <row r="45" spans="1:69">
       <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AP45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR45" s="4"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="4"/>
+      <c r="AU45" s="4"/>
+      <c r="AV45" s="4"/>
+      <c r="AW45" s="4"/>
+      <c r="AX45" s="4"/>
+      <c r="AY45" s="4"/>
+      <c r="AZ45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD45" s="4"/>
+      <c r="BE45" s="4"/>
+      <c r="BF45" s="4"/>
+      <c r="BG45" s="4"/>
+      <c r="BH45" s="4"/>
+      <c r="BI45" s="4"/>
+      <c r="BL45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP45" s="4"/>
+      <c r="BQ45" s="4"/>
+    </row>
+    <row r="46" spans="1:69">
       <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AP46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR46" s="4"/>
+      <c r="AS46" s="4"/>
+      <c r="AT46" s="4"/>
+      <c r="AU46" s="4"/>
+      <c r="AV46" s="4"/>
+      <c r="AW46" s="4"/>
+      <c r="AX46" s="4"/>
+      <c r="AY46" s="4"/>
+      <c r="AZ46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD46" s="4"/>
+      <c r="BE46" s="4"/>
+      <c r="BF46" s="4"/>
+      <c r="BG46" s="4"/>
+      <c r="BH46" s="4"/>
+      <c r="BI46" s="4"/>
+      <c r="BL46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM46" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP46" s="4"/>
+      <c r="BQ46" s="4"/>
+    </row>
+    <row r="47" spans="1:69">
       <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK47" s="4"/>
+      <c r="AP47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS47" s="4"/>
+      <c r="AT47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU47" s="4"/>
+      <c r="AV47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW47" s="4"/>
+      <c r="AX47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY47" s="4"/>
+      <c r="AZ47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE47" s="4"/>
+      <c r="BF47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG47" s="4"/>
+      <c r="BH47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BI47" s="4"/>
+      <c r="BL47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BQ47" s="4"/>
+    </row>
+    <row r="48" spans="1:69">
       <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AP48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR48" s="4"/>
+      <c r="AS48" s="4"/>
+      <c r="AT48" s="4"/>
+      <c r="AU48" s="4"/>
+      <c r="AV48" s="4"/>
+      <c r="AW48" s="4"/>
+      <c r="AX48" s="4"/>
+      <c r="AY48" s="4"/>
+      <c r="AZ48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA48" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="4"/>
+      <c r="BF48" s="4"/>
+      <c r="BG48" s="4"/>
+      <c r="BH48" s="4"/>
+      <c r="BI48" s="4"/>
+      <c r="BL48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP48" s="4"/>
+      <c r="BQ48" s="4"/>
+    </row>
+    <row r="49" spans="1:69">
       <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AP49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR49" s="4"/>
+      <c r="AS49" s="4"/>
+      <c r="AT49" s="4"/>
+      <c r="AU49" s="4"/>
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="4"/>
+      <c r="AX49" s="4"/>
+      <c r="AY49" s="4"/>
+      <c r="AZ49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
+      <c r="BF49" s="4"/>
+      <c r="BG49" s="4"/>
+      <c r="BH49" s="4"/>
+      <c r="BI49" s="4"/>
+      <c r="BL49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BP49" s="4"/>
+      <c r="BQ49" s="4"/>
+    </row>
+    <row r="50" spans="1:69">
       <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC50" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AP50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR50" s="4"/>
+      <c r="AS50" s="4"/>
+      <c r="AT50" s="4"/>
+      <c r="AU50" s="4"/>
+      <c r="AV50" s="4"/>
+      <c r="AW50" s="4"/>
+      <c r="AX50" s="4"/>
+      <c r="AY50" s="4"/>
+      <c r="AZ50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD50" s="4"/>
+      <c r="BE50" s="4"/>
+      <c r="BF50" s="4"/>
+      <c r="BG50" s="4"/>
+      <c r="BH50" s="4"/>
+      <c r="BI50" s="4"/>
+      <c r="BL50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP50" s="4"/>
+      <c r="BQ50" s="4"/>
+    </row>
+    <row r="51" spans="1:69">
       <c r="A51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD51" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="AE51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM51" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:69">
       <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="F52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="R52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR52" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL52" s="4"/>
+      <c r="BM52" s="4"/>
+    </row>
+    <row r="53" spans="1:69">
       <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="F53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="V53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
+      <c r="AT53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ53" s="4"/>
+      <c r="BA53" s="4"/>
+      <c r="BF53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL53" s="4"/>
+      <c r="BM53" s="4"/>
+    </row>
+    <row r="54" spans="1:69">
       <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="F54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="V54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN54" s="4"/>
+      <c r="AO54" s="4"/>
+      <c r="AT54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+      <c r="BF54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL54" s="4"/>
+      <c r="BM54" s="4"/>
+    </row>
+    <row r="55" spans="1:69">
       <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="F55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="V55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO55" s="4"/>
+      <c r="AT55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ55" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA55" s="4"/>
+      <c r="BF55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM55" s="4"/>
+    </row>
+    <row r="56" spans="1:69">
       <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="F56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="V56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN56" s="4"/>
+      <c r="AO56" s="4"/>
+      <c r="AT56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ56" s="4"/>
+      <c r="BA56" s="4"/>
+      <c r="BF56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL56" s="4"/>
+      <c r="BM56" s="4"/>
+    </row>
+    <row r="57" spans="1:69">
       <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="F57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="V57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN57" s="4"/>
+      <c r="AO57" s="4"/>
+      <c r="AT57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ57" s="4"/>
+      <c r="BA57" s="4"/>
+      <c r="BF57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL57" s="4"/>
+      <c r="BM57" s="4"/>
+    </row>
+    <row r="58" spans="1:69">
       <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="F58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="V58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN58" s="4"/>
+      <c r="AO58" s="4"/>
+      <c r="AT58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ58" s="4"/>
+      <c r="BA58" s="4"/>
+      <c r="BF58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BL58" s="4"/>
+      <c r="BM58" s="4"/>
+    </row>
+    <row r="59" spans="1:69">
       <c r="A59" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W59" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="AB59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM59" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:69">
       <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="F60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="V60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AH60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI60" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN60" s="4"/>
+      <c r="AO60" s="4"/>
+      <c r="AT60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ60" s="4"/>
+      <c r="BA60" s="4"/>
+      <c r="BF60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG60" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL60" s="4"/>
+      <c r="BM60" s="4"/>
+    </row>
+    <row r="61" spans="1:69">
       <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="F61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="V61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AH61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN61" s="4"/>
+      <c r="AO61" s="4"/>
+      <c r="AT61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ61" s="4"/>
+      <c r="BA61" s="4"/>
+      <c r="BF61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL61" s="4"/>
+      <c r="BM61" s="4"/>
+    </row>
+    <row r="62" spans="1:69">
       <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="F62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="V62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AH62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN62" s="4"/>
+      <c r="AO62" s="4"/>
+      <c r="AT62" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ62" s="4"/>
+      <c r="BA62" s="4"/>
+      <c r="BF62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL62" s="4"/>
+      <c r="BM62" s="4"/>
+    </row>
+    <row r="63" spans="1:69">
       <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="F63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M63" s="4"/>
+      <c r="V63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB63" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC63" s="4"/>
+      <c r="AH63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO63" s="4"/>
+      <c r="AT63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ63" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA63" s="4"/>
+      <c r="BF63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM63" s="4"/>
+    </row>
+    <row r="64" spans="1:69">
       <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="F64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="V64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AH64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
+      <c r="AT64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ64" s="4"/>
+      <c r="BA64" s="4"/>
+      <c r="BF64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL64" s="4"/>
+      <c r="BM64" s="4"/>
+    </row>
+    <row r="65" spans="1:65">
       <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="F65" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="V65" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AH65" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN65" s="4"/>
+      <c r="AO65" s="4"/>
+      <c r="AT65" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ65" s="4"/>
+      <c r="BA65" s="4"/>
+      <c r="BF65" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL65" s="4"/>
+      <c r="BM65" s="4"/>
+    </row>
+    <row r="66" spans="1:65">
       <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="F66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="V66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AH66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN66" s="4"/>
+      <c r="AO66" s="4"/>
+      <c r="AT66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ66" s="4"/>
+      <c r="BA66" s="4"/>
+      <c r="BF66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BL66" s="4"/>
+      <c r="BM66" s="4"/>
+    </row>
+    <row r="67" spans="1:65">
       <c r="A67" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>97</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC67" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO67" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA67" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM67" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:65">
       <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AH68" s="4"/>
+      <c r="AI68" s="4"/>
+      <c r="AN68" s="4"/>
+      <c r="AO68" s="4"/>
+      <c r="AT68" s="4"/>
+      <c r="AU68" s="4"/>
+      <c r="AZ68" s="4"/>
+      <c r="BA68" s="4"/>
+      <c r="BF68" s="4"/>
+      <c r="BG68" s="4"/>
+      <c r="BL68" s="4"/>
+      <c r="BM68" s="4"/>
+    </row>
+    <row r="69" spans="1:65">
       <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AH69" s="4"/>
+      <c r="AI69" s="4"/>
+      <c r="AN69" s="4"/>
+      <c r="AO69" s="4"/>
+      <c r="AT69" s="4"/>
+      <c r="AU69" s="4"/>
+      <c r="AZ69" s="4"/>
+      <c r="BA69" s="4"/>
+      <c r="BF69" s="4"/>
+      <c r="BG69" s="4"/>
+      <c r="BL69" s="4"/>
+      <c r="BM69" s="4"/>
+    </row>
+    <row r="70" spans="1:65">
       <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AH70" s="4"/>
+      <c r="AI70" s="4"/>
+      <c r="AN70" s="4"/>
+      <c r="AO70" s="4"/>
+      <c r="AT70" s="4"/>
+      <c r="AU70" s="4"/>
+      <c r="AZ70" s="4"/>
+      <c r="BA70" s="4"/>
+      <c r="BF70" s="4"/>
+      <c r="BG70" s="4"/>
+      <c r="BL70" s="4"/>
+      <c r="BM70" s="4"/>
+    </row>
+    <row r="71" spans="1:65">
       <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="F71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="L71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="V71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W71" s="4"/>
+      <c r="AB71" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC71" s="4"/>
+      <c r="AH71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI71" s="4"/>
+      <c r="AN71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO71" s="4"/>
+      <c r="AT71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU71" s="4"/>
+      <c r="AZ71" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA71" s="4"/>
+      <c r="BF71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG71" s="4"/>
+      <c r="BL71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM71" s="4"/>
+    </row>
+    <row r="72" spans="1:65">
       <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AH72" s="4"/>
+      <c r="AI72" s="4"/>
+      <c r="AN72" s="4"/>
+      <c r="AO72" s="4"/>
+      <c r="AT72" s="4"/>
+      <c r="AU72" s="4"/>
+      <c r="AZ72" s="4"/>
+      <c r="BA72" s="4"/>
+      <c r="BF72" s="4"/>
+      <c r="BG72" s="4"/>
+      <c r="BL72" s="4"/>
+      <c r="BM72" s="4"/>
+    </row>
+    <row r="73" spans="1:65">
       <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AH73" s="4"/>
+      <c r="AI73" s="4"/>
+      <c r="AN73" s="4"/>
+      <c r="AO73" s="4"/>
+      <c r="AT73" s="4"/>
+      <c r="AU73" s="4"/>
+      <c r="AZ73" s="4"/>
+      <c r="BA73" s="4"/>
+      <c r="BF73" s="4"/>
+      <c r="BG73" s="4"/>
+      <c r="BL73" s="4"/>
+      <c r="BM73" s="4"/>
+    </row>
+    <row r="74" spans="1:65">
       <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+      <c r="AH74" s="4"/>
+      <c r="AI74" s="4"/>
+      <c r="AN74" s="4"/>
+      <c r="AO74" s="4"/>
+      <c r="AT74" s="4"/>
+      <c r="AU74" s="4"/>
+      <c r="AZ74" s="4"/>
+      <c r="BA74" s="4"/>
+      <c r="BF74" s="4"/>
+      <c r="BG74" s="4"/>
+      <c r="BL74" s="4"/>
+      <c r="BM74" s="4"/>
+    </row>
+    <row r="75" spans="1:65">
       <c r="A75" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>98</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W75" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT75" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU75" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF75" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG75" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:65">
       <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="F76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="W76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG76" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:65">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:65">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:65">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:65">
       <c r="A80" s="3"/>
     </row>
     <row r="81" spans="1:1">
@@ -760,12 +6524,401 @@
       <c r="A82" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="404">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D23:E26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="D31:E34"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="D39:E42"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="D47:E50"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="F39:G42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="F47:G50"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="F71:G74"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="H23:I26"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="H31:I34"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="H39:I42"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="H47:I50"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="J7:K10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="J15:K18"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="J47:K50"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L51:L54"/>
+    <mergeCell ref="M51:M54"/>
+    <mergeCell ref="L55:M58"/>
+    <mergeCell ref="L59:L62"/>
+    <mergeCell ref="M59:M62"/>
+    <mergeCell ref="L63:M66"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="M67:M70"/>
+    <mergeCell ref="L71:M74"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="N7:O10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="P7:Q10"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="R7:S10"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="S11:S14"/>
+    <mergeCell ref="R15:S18"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="S19:S22"/>
+    <mergeCell ref="R23:S26"/>
+    <mergeCell ref="R27:R30"/>
+    <mergeCell ref="S27:S30"/>
+    <mergeCell ref="R31:S34"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="T23:U26"/>
+    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="U27:U30"/>
+    <mergeCell ref="T31:U34"/>
+    <mergeCell ref="T35:T38"/>
+    <mergeCell ref="U35:U38"/>
+    <mergeCell ref="T39:U42"/>
+    <mergeCell ref="T43:T46"/>
+    <mergeCell ref="U43:U46"/>
+    <mergeCell ref="T47:U50"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V35:V38"/>
+    <mergeCell ref="W35:W38"/>
+    <mergeCell ref="V39:W42"/>
+    <mergeCell ref="V43:V46"/>
+    <mergeCell ref="W43:W46"/>
+    <mergeCell ref="V47:W50"/>
+    <mergeCell ref="V67:V70"/>
+    <mergeCell ref="W67:W70"/>
+    <mergeCell ref="V71:W74"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X19:X22"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X23:Y26"/>
+    <mergeCell ref="X27:X30"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X31:Y34"/>
+    <mergeCell ref="X35:X38"/>
+    <mergeCell ref="Y35:Y38"/>
+    <mergeCell ref="X39:Y42"/>
+    <mergeCell ref="X43:X46"/>
+    <mergeCell ref="Y43:Y46"/>
+    <mergeCell ref="X47:Y50"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="AA3:AA6"/>
+    <mergeCell ref="Z7:AA10"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="AA11:AA14"/>
+    <mergeCell ref="Z15:AA18"/>
+    <mergeCell ref="Z35:Z38"/>
+    <mergeCell ref="AA35:AA38"/>
+    <mergeCell ref="Z39:AA42"/>
+    <mergeCell ref="Z43:Z46"/>
+    <mergeCell ref="AA43:AA46"/>
+    <mergeCell ref="Z47:AA50"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AB59:AB62"/>
+    <mergeCell ref="AC59:AC62"/>
+    <mergeCell ref="AB63:AC66"/>
+    <mergeCell ref="AB67:AB70"/>
+    <mergeCell ref="AC67:AC70"/>
+    <mergeCell ref="AB71:AC74"/>
+    <mergeCell ref="R1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AD6"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AD7:AE10"/>
+    <mergeCell ref="AD11:AD14"/>
+    <mergeCell ref="AE11:AE14"/>
+    <mergeCell ref="AD15:AE18"/>
+    <mergeCell ref="AD19:AD22"/>
+    <mergeCell ref="AE19:AE22"/>
+    <mergeCell ref="AD23:AE26"/>
+    <mergeCell ref="AD27:AD30"/>
+    <mergeCell ref="AE27:AE30"/>
+    <mergeCell ref="AD31:AE34"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AF19:AF22"/>
+    <mergeCell ref="AG19:AG22"/>
+    <mergeCell ref="AF23:AG26"/>
+    <mergeCell ref="AF27:AF30"/>
+    <mergeCell ref="AG27:AG30"/>
+    <mergeCell ref="AF31:AG34"/>
+    <mergeCell ref="AF35:AF38"/>
+    <mergeCell ref="AG35:AG38"/>
+    <mergeCell ref="AF39:AG42"/>
+    <mergeCell ref="AF43:AF46"/>
+    <mergeCell ref="AG43:AG46"/>
+    <mergeCell ref="AF47:AG50"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AH35:AH38"/>
+    <mergeCell ref="AI35:AI38"/>
+    <mergeCell ref="AH39:AI42"/>
+    <mergeCell ref="AH43:AH46"/>
+    <mergeCell ref="AI43:AI46"/>
+    <mergeCell ref="AH47:AI50"/>
+    <mergeCell ref="AH67:AH70"/>
+    <mergeCell ref="AI67:AI70"/>
+    <mergeCell ref="AH71:AI74"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AJ3:AJ6"/>
+    <mergeCell ref="AK3:AK6"/>
+    <mergeCell ref="AJ7:AK10"/>
+    <mergeCell ref="AJ11:AJ14"/>
+    <mergeCell ref="AK11:AK14"/>
+    <mergeCell ref="AJ15:AK18"/>
+    <mergeCell ref="AJ35:AJ38"/>
+    <mergeCell ref="AK35:AK38"/>
+    <mergeCell ref="AJ39:AK42"/>
+    <mergeCell ref="AJ43:AJ46"/>
+    <mergeCell ref="AK43:AK46"/>
+    <mergeCell ref="AJ47:AK50"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AL19:AL22"/>
+    <mergeCell ref="AM19:AM22"/>
+    <mergeCell ref="AL23:AM26"/>
+    <mergeCell ref="AL27:AL30"/>
+    <mergeCell ref="AM27:AM30"/>
+    <mergeCell ref="AL31:AM34"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AN51:AN54"/>
+    <mergeCell ref="AO51:AO54"/>
+    <mergeCell ref="AN55:AO58"/>
+    <mergeCell ref="AN59:AN62"/>
+    <mergeCell ref="AO59:AO62"/>
+    <mergeCell ref="AN63:AO66"/>
+    <mergeCell ref="AN67:AN70"/>
+    <mergeCell ref="AO67:AO70"/>
+    <mergeCell ref="AN71:AO74"/>
+    <mergeCell ref="AD1:AO1"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AP3:AP6"/>
+    <mergeCell ref="AQ3:AQ6"/>
+    <mergeCell ref="AP7:AQ10"/>
+    <mergeCell ref="AP11:AP14"/>
+    <mergeCell ref="AQ11:AQ14"/>
+    <mergeCell ref="AP15:AQ18"/>
+    <mergeCell ref="AP19:AP22"/>
+    <mergeCell ref="AQ19:AQ22"/>
+    <mergeCell ref="AP23:AQ26"/>
+    <mergeCell ref="AP27:AP30"/>
+    <mergeCell ref="AQ27:AQ30"/>
+    <mergeCell ref="AP31:AQ34"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AR19:AR22"/>
+    <mergeCell ref="AS19:AS22"/>
+    <mergeCell ref="AR23:AS26"/>
+    <mergeCell ref="AR27:AR30"/>
+    <mergeCell ref="AS27:AS30"/>
+    <mergeCell ref="AR31:AS34"/>
+    <mergeCell ref="AR35:AR38"/>
+    <mergeCell ref="AS35:AS38"/>
+    <mergeCell ref="AR39:AS42"/>
+    <mergeCell ref="AR43:AR46"/>
+    <mergeCell ref="AS43:AS46"/>
+    <mergeCell ref="AR47:AS50"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AT35:AT38"/>
+    <mergeCell ref="AU35:AU38"/>
+    <mergeCell ref="AT39:AU42"/>
+    <mergeCell ref="AT43:AT46"/>
+    <mergeCell ref="AU43:AU46"/>
+    <mergeCell ref="AT47:AU50"/>
+    <mergeCell ref="AT67:AT70"/>
+    <mergeCell ref="AU67:AU70"/>
+    <mergeCell ref="AT71:AU74"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AV3:AV6"/>
+    <mergeCell ref="AW3:AW6"/>
+    <mergeCell ref="AV7:AW10"/>
+    <mergeCell ref="AV11:AV14"/>
+    <mergeCell ref="AW11:AW14"/>
+    <mergeCell ref="AV15:AW18"/>
+    <mergeCell ref="AV35:AV38"/>
+    <mergeCell ref="AW35:AW38"/>
+    <mergeCell ref="AV39:AW42"/>
+    <mergeCell ref="AV43:AV46"/>
+    <mergeCell ref="AW43:AW46"/>
+    <mergeCell ref="AV47:AW50"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AX19:AX22"/>
+    <mergeCell ref="AY19:AY22"/>
+    <mergeCell ref="AX23:AY26"/>
+    <mergeCell ref="AX27:AX30"/>
+    <mergeCell ref="AY27:AY30"/>
+    <mergeCell ref="AX31:AY34"/>
+    <mergeCell ref="AX35:AX38"/>
+    <mergeCell ref="AY35:AY38"/>
+    <mergeCell ref="AX39:AY42"/>
+    <mergeCell ref="AX43:AX46"/>
+    <mergeCell ref="AY43:AY46"/>
+    <mergeCell ref="AX47:AY50"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AZ51:AZ54"/>
+    <mergeCell ref="BA51:BA54"/>
+    <mergeCell ref="AZ55:BA58"/>
+    <mergeCell ref="AZ59:AZ62"/>
+    <mergeCell ref="BA59:BA62"/>
+    <mergeCell ref="AZ63:BA66"/>
+    <mergeCell ref="AZ67:AZ70"/>
+    <mergeCell ref="BA67:BA70"/>
+    <mergeCell ref="AZ71:BA74"/>
+    <mergeCell ref="AP1:BA1"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BB3:BB6"/>
+    <mergeCell ref="BC3:BC6"/>
+    <mergeCell ref="BB7:BC10"/>
+    <mergeCell ref="BB11:BB14"/>
+    <mergeCell ref="BC11:BC14"/>
+    <mergeCell ref="BB15:BC18"/>
+    <mergeCell ref="BB19:BB22"/>
+    <mergeCell ref="BC19:BC22"/>
+    <mergeCell ref="BB23:BC26"/>
+    <mergeCell ref="BB27:BB30"/>
+    <mergeCell ref="BC27:BC30"/>
+    <mergeCell ref="BB31:BC34"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BD19:BD22"/>
+    <mergeCell ref="BE19:BE22"/>
+    <mergeCell ref="BD23:BE26"/>
+    <mergeCell ref="BD27:BD30"/>
+    <mergeCell ref="BE27:BE30"/>
+    <mergeCell ref="BD31:BE34"/>
+    <mergeCell ref="BD35:BD38"/>
+    <mergeCell ref="BE35:BE38"/>
+    <mergeCell ref="BD39:BE42"/>
+    <mergeCell ref="BD43:BD46"/>
+    <mergeCell ref="BE43:BE46"/>
+    <mergeCell ref="BD47:BE50"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BF35:BF38"/>
+    <mergeCell ref="BG35:BG38"/>
+    <mergeCell ref="BF39:BG42"/>
+    <mergeCell ref="BF43:BF46"/>
+    <mergeCell ref="BG43:BG46"/>
+    <mergeCell ref="BF47:BG50"/>
+    <mergeCell ref="BF67:BF70"/>
+    <mergeCell ref="BG67:BG70"/>
+    <mergeCell ref="BF71:BG74"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BH3:BH6"/>
+    <mergeCell ref="BI3:BI6"/>
+    <mergeCell ref="BH7:BI10"/>
+    <mergeCell ref="BH11:BH14"/>
+    <mergeCell ref="BI11:BI14"/>
+    <mergeCell ref="BH15:BI18"/>
+    <mergeCell ref="BH19:BH22"/>
+    <mergeCell ref="BI19:BI22"/>
+    <mergeCell ref="BH23:BI26"/>
+    <mergeCell ref="BH27:BH30"/>
+    <mergeCell ref="BI27:BI30"/>
+    <mergeCell ref="BH31:BI34"/>
+    <mergeCell ref="BH35:BH38"/>
+    <mergeCell ref="BI35:BI38"/>
+    <mergeCell ref="BH39:BI42"/>
+    <mergeCell ref="BH43:BH46"/>
+    <mergeCell ref="BI43:BI46"/>
+    <mergeCell ref="BH47:BI50"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BJ3:BJ6"/>
+    <mergeCell ref="BK3:BK6"/>
+    <mergeCell ref="BJ7:BK10"/>
+    <mergeCell ref="BJ11:BJ14"/>
+    <mergeCell ref="BK11:BK14"/>
+    <mergeCell ref="BJ15:BK18"/>
+    <mergeCell ref="BJ19:BJ22"/>
+    <mergeCell ref="BK19:BK22"/>
+    <mergeCell ref="BJ23:BK26"/>
+    <mergeCell ref="BJ27:BJ30"/>
+    <mergeCell ref="BK27:BK30"/>
+    <mergeCell ref="BJ31:BK34"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BL51:BL54"/>
+    <mergeCell ref="BM51:BM54"/>
+    <mergeCell ref="BL55:BM58"/>
+    <mergeCell ref="BL59:BL62"/>
+    <mergeCell ref="BM59:BM62"/>
+    <mergeCell ref="BL63:BM66"/>
+    <mergeCell ref="BL67:BL70"/>
+    <mergeCell ref="BM67:BM70"/>
+    <mergeCell ref="BL71:BM74"/>
+    <mergeCell ref="BB1:BM1"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BN3:BN6"/>
+    <mergeCell ref="BO3:BO6"/>
+    <mergeCell ref="BN7:BO10"/>
+    <mergeCell ref="BN11:BN14"/>
+    <mergeCell ref="BO11:BO14"/>
+    <mergeCell ref="BN15:BO18"/>
+    <mergeCell ref="BP2:BQ2"/>
+    <mergeCell ref="BP3:BP6"/>
+    <mergeCell ref="BQ3:BQ6"/>
+    <mergeCell ref="BP7:BQ10"/>
+    <mergeCell ref="BP11:BP14"/>
+    <mergeCell ref="BQ11:BQ14"/>
+    <mergeCell ref="BP15:BQ18"/>
+    <mergeCell ref="BP19:BP22"/>
+    <mergeCell ref="BQ19:BQ22"/>
+    <mergeCell ref="BP23:BQ26"/>
+    <mergeCell ref="BP27:BP30"/>
+    <mergeCell ref="BQ27:BQ30"/>
+    <mergeCell ref="BP31:BQ34"/>
+    <mergeCell ref="BP35:BP38"/>
+    <mergeCell ref="BQ35:BQ38"/>
+    <mergeCell ref="BP39:BQ42"/>
+    <mergeCell ref="BP43:BP46"/>
+    <mergeCell ref="BQ43:BQ46"/>
+    <mergeCell ref="BP47:BQ50"/>
+    <mergeCell ref="BN1:BQ1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="A19:A26"/>
